--- a/webapp/Files/generate/zijinqixianbiao/zijinqixianbiao_2019_04_30.xlsx
+++ b/webapp/Files/generate/zijinqixianbiao/zijinqixianbiao_2019_04_30.xlsx
@@ -2615,7 +2615,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="132" t="n">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="134" t="n">
-        <v>745</v>
+        <v>9805.780000000001</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -2683,7 +2683,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="132" t="n">
-        <v>702</v>
+        <v>605.78</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="132" t="n">
-        <v>43</v>
+        <v>9200</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>1</v>
@@ -2827,7 +2827,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="137" t="n">
-        <v>290</v>
+        <v>-16665777.83333333</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -2869,7 +2869,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="132" t="n">
-        <v>290</v>
+        <v>-16665777.83333333</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>

--- a/webapp/Files/generate/zijinqixianbiao/zijinqixianbiao_2019_04_30.xlsx
+++ b/webapp/Files/generate/zijinqixianbiao/zijinqixianbiao_2019_04_30.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7365" windowWidth="14910" xWindow="480" yWindow="75"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14910" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="292">
   <si>
     <t>G25 第I部分 流动性覆盖率</t>
   </si>
@@ -900,150 +900,150 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="#,##0.00_);[Red]\(#,##0.00\)" numFmtId="164"/>
-    <numFmt formatCode="0.0%" numFmtId="165"/>
-    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="166"/>
-    <numFmt formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)" numFmtId="167"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="16"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="20"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="仿宋_GB2312"/>
       <charset val="134"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
       <name val="华文细黑"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="14"/>
       <name val="华文细黑"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="14"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="仿宋_GB2312"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="16">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1104,7 +1104,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,687 +1494,557 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="10" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="124">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="left" indent="2" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="left" indent="1" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="11" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="11" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="3" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyProtection="1" borderId="18" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="4" fontId="6" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="7" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyProtection="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="9" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="9" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="10" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="10" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="10" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="9">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="13" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="13" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="14" fontId="6" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="23" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="left" indent="2" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="left" indent="2" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="14" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="8" fontId="9" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="24" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="5" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="5" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="8" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="11" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="8" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="12" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="16" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="8" borderId="20" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="9" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="8" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="18" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="11">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="18" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="11">
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="26" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="8">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="7" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="8" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="0" fontId="11" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="0" fontId="11" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="5" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="5" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="27" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="11" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="12" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="4" fontId="6" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="7" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="0" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="8" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="16" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="10">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="2" fillId="0" fontId="10" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="8" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="4" fontId="6" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="8" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="26" fillId="0" fontId="18" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="11">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="greyed" xfId="9"/>
+    <cellStyle name="Heading 2" xfId="5"/>
+    <cellStyle name="inputExposure_流动性测算模板" xfId="12"/>
+    <cellStyle name="Normal_G10revised-20050118" xfId="6"/>
+    <cellStyle name="showExposure_流动性测算模板" xfId="13"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="11"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 3 2" xfId="14"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="常规 4 2" xfId="18"/>
+    <cellStyle name="常规 4 7" xfId="20"/>
+    <cellStyle name="常规 4 8" xfId="19"/>
+    <cellStyle name="常规 5" xfId="10"/>
     <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规_QIS reporting template unprotected_中英文0225" xfId="4"/>
-    <cellStyle name="Heading 2" xfId="5"/>
-    <cellStyle name="Normal_G10revised-20050118" xfId="6"/>
-    <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规_流动性测算模板" xfId="8"/>
-    <cellStyle name="greyed" xfId="9"/>
-    <cellStyle name="常规 5" xfId="10"/>
-    <cellStyle name="常规 2 2" xfId="11"/>
-    <cellStyle name="inputExposure_流动性测算模板" xfId="12"/>
-    <cellStyle name="showExposure_流动性测算模板" xfId="13"/>
-    <cellStyle name="常规 3 2" xfId="14"/>
+    <cellStyle name="㼿㼿㼿" xfId="17"/>
     <cellStyle name="㼿㼿㼿㼿㼿" xfId="15"/>
     <cellStyle name="㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿?" xfId="16"/>
-    <cellStyle name="㼿㼿㼿" xfId="17"/>
-    <cellStyle name="常规 4 2" xfId="18"/>
-    <cellStyle name="常规 4 8" xfId="19"/>
-    <cellStyle name="常规 4 7" xfId="20"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2462,68 +2332,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="77" width="36.75"/>
-    <col customWidth="1" max="3" min="3" style="77" width="34.25"/>
+    <col min="2" max="2" width="36.75" style="77" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.25" r="1" s="77" spans="1:9">
-      <c r="A1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112" t="n"/>
-      <c r="C1" s="112" t="n"/>
-      <c r="D1" s="112" t="n"/>
-      <c r="E1" s="112" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="2" s="77" spans="1:9" thickBot="1">
-      <c r="A2" s="113" t="s">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="n"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="n"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="1" t="n"/>
-      <c r="H2" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="3" s="77" spans="1:9" thickBot="1">
-      <c r="A3" s="114" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="115" t="n"/>
-      <c r="C3" s="115" t="n"/>
-      <c r="D3" s="115" t="n"/>
-      <c r="E3" s="116" t="n"/>
-      <c r="F3" s="12" t="n"/>
-      <c r="G3" s="1" t="n"/>
-      <c r="H3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="122" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="121" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2535,95 +2402,96 @@
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="5" s="77" spans="1:9" thickBot="1">
-      <c r="A5" s="124" t="n"/>
-      <c r="B5" s="125" t="n"/>
-      <c r="C5" s="126" t="s">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A5" s="120"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="121" t="n"/>
-      <c r="G5" s="108" t="n"/>
-      <c r="H5" s="12" t="n"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5" s="123"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="14" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="16" t="n"/>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="1" t="n"/>
-      <c r="H6" s="1" t="n"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="17" t="n">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="128" t="n"/>
-      <c r="D7" s="19" t="n"/>
-      <c r="E7" s="129" t="n"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="81"/>
       <c r="F7" s="38" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="n"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="17" t="n">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="130" t="e">
+      <c r="C8" s="82" t="e">
+        <f>C9+C10+C11+C16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D8" s="21" t="n"/>
-      <c r="E8" s="131" t="n"/>
-      <c r="F8" s="1" t="n"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="n"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="17" t="n">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="132" t="n">
+      <c r="C9" s="84">
         <v>10.44</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n"/>
+      <c r="E9" s="85">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="38" t="s">
         <v>18</v>
       </c>
@@ -2631,23 +2499,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="17" t="n">
+    <row r="10" spans="1:8">
+      <c r="A10" s="17">
         <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n"/>
+      <c r="E10" s="85">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="38" t="s">
         <v>18</v>
       </c>
@@ -2655,19 +2523,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17" t="n">
+    <row r="11" spans="1:8">
+      <c r="A11" s="17">
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="134" t="n">
-        <v>9805.780000000001</v>
-      </c>
-      <c r="D11" s="21" t="n"/>
-      <c r="E11" s="135" t="n"/>
-      <c r="F11" s="38" t="n"/>
+      <c r="C11" s="87">
+        <f>SUM(C12:C15)</f>
+        <v>9805.7800000000007</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="38" t="s">
         <v>18</v>
       </c>
@@ -2675,23 +2544,23 @@
         <v>26</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="12" s="77" spans="1:9">
-      <c r="A12" s="17" t="n">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="132" t="n">
+      <c r="C12" s="84">
         <v>605.78</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="n"/>
+      <c r="E12" s="85">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="38" t="s">
         <v>18</v>
       </c>
@@ -2699,23 +2568,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17" t="n">
+    <row r="13" spans="1:8">
+      <c r="A13" s="17">
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="132" t="n">
+      <c r="C13" s="84">
         <v>9200</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="38" t="n"/>
+      <c r="E13" s="85">
+        <v>0</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="38" t="s">
         <v>18</v>
       </c>
@@ -2723,23 +2592,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="17" t="n">
+    <row r="14" spans="1:8">
+      <c r="A14" s="17">
         <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1" t="n"/>
+      <c r="E14" s="85">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="38" t="s">
         <v>18</v>
       </c>
@@ -2747,23 +2616,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="17" t="n">
+    <row r="15" spans="1:8">
+      <c r="A15" s="17">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="38" t="n"/>
+      <c r="E15" s="85">
+        <v>0</v>
+      </c>
+      <c r="F15" s="38"/>
       <c r="G15" s="38" t="s">
         <v>18</v>
       </c>
@@ -2771,20 +2640,20 @@
         <v>34</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="16" s="77" spans="1:9">
-      <c r="A16" s="28" t="n">
+    <row r="16" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A16" s="28">
         <v>10</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="133" t="n">
+      <c r="E16" s="85">
         <v>0</v>
       </c>
       <c r="F16" s="38" t="s">
@@ -2793,22 +2662,22 @@
       <c r="G16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="36" r="17" s="77" spans="1:9">
-      <c r="A17" s="17" t="n">
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:8" ht="36" customHeight="1">
+      <c r="A17" s="17">
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="E17" s="133" t="n">
+      <c r="E17" s="85">
         <v>0</v>
       </c>
       <c r="F17" s="29" t="s">
@@ -2817,43 +2686,44 @@
       <c r="G17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="26" t="n"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="17" t="n">
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="17">
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="137" t="n">
-        <v>-16665777.83333333</v>
-      </c>
-      <c r="D18" s="21" t="n"/>
-      <c r="E18" s="135" t="n"/>
-      <c r="F18" s="1" t="n"/>
+      <c r="C18" s="82">
+        <f>SUM(C19:C21,C27)</f>
+        <v>-16665777.83</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="1" t="n"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="17" t="n">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="17">
         <v>13</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="23">
         <v>0.85</v>
       </c>
-      <c r="E19" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="n"/>
+      <c r="E19" s="85">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="38" t="s">
         <v>18</v>
       </c>
@@ -2861,148 +2731,148 @@
         <v>40</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="20" s="77" spans="1:9">
-      <c r="A20" s="17" t="n">
+    <row r="20" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A20" s="17">
         <v>14</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="132" t="n">
-        <v>-16665777.83333333</v>
-      </c>
-      <c r="D20" s="23" t="n">
+      <c r="C20" s="84">
+        <v>-16665777.83</v>
+      </c>
+      <c r="D20" s="23">
         <v>0.85</v>
       </c>
-      <c r="E20" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="n"/>
+      <c r="E20" s="85">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="26" t="n"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="17" t="n">
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="17">
         <v>15</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="134" t="n"/>
-      <c r="D21" s="21" t="n"/>
-      <c r="E21" s="135" t="n"/>
-      <c r="F21" s="1" t="n"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="26" t="n"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="17" t="n">
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="17">
         <v>16</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="23">
         <v>0.85</v>
       </c>
-      <c r="E22" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="n"/>
+      <c r="E22" s="85">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="26" t="n"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="17" t="n">
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17">
         <v>17</v>
       </c>
       <c r="B23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="23">
         <v>0.85</v>
       </c>
-      <c r="E23" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="n"/>
+      <c r="E23" s="85">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="26" t="n"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="17" t="n">
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="17">
         <v>18</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="23">
         <v>0.85</v>
       </c>
-      <c r="E24" s="133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="n"/>
+      <c r="E24" s="85">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="26" t="n"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="17" t="n">
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17">
         <v>19</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="23">
         <v>0.85</v>
       </c>
-      <c r="E25" s="133" t="n">
+      <c r="E25" s="85">
         <v>0</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="12" t="n"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="17" t="n">
+    <row r="26" spans="1:8">
+      <c r="A26" s="17">
         <v>20</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="23">
         <v>0.85</v>
       </c>
-      <c r="E26" s="133" t="n">
+      <c r="E26" s="85">
         <v>0</v>
       </c>
       <c r="F26" s="38" t="s">
@@ -3011,108 +2881,108 @@
       <c r="G26" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="26" t="n"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="17" t="n">
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="17">
         <v>21</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="132" t="n"/>
-      <c r="D27" s="23" t="n">
+      <c r="C27" s="86"/>
+      <c r="D27" s="23">
         <v>0.5</v>
       </c>
-      <c r="E27" s="133" t="n">
+      <c r="E27" s="85">
         <v>0</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="26" t="n"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="17" t="n">
+      <c r="G27" s="12"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="17">
         <v>22</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="137" t="n"/>
-      <c r="D28" s="21" t="n"/>
-      <c r="E28" s="135" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="17" t="n">
+      <c r="C28" s="91"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="17">
         <v>23</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="137" t="n"/>
-      <c r="D29" s="21" t="n"/>
-      <c r="E29" s="135" t="n"/>
-      <c r="F29" s="38" t="n"/>
-      <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="17" t="n">
+      <c r="C29" s="91"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="17">
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="134" t="n"/>
-      <c r="D30" s="21" t="n"/>
-      <c r="E30" s="135" t="n"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="12" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="31" s="77" spans="1:9">
-      <c r="A31" s="17" t="n">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A31" s="17">
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="132" t="n"/>
-      <c r="D31" s="23" t="n">
+      <c r="C31" s="86"/>
+      <c r="D31" s="23">
         <v>0.03</v>
       </c>
-      <c r="E31" s="133" t="n">
+      <c r="E31" s="85">
         <v>0</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="1" t="n"/>
-      <c r="H31" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.75" r="32" s="77" spans="1:9">
-      <c r="A32" s="17" t="n">
+      <c r="G31" s="1"/>
+      <c r="H31" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A32" s="17">
         <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="132" t="n"/>
-      <c r="D32" s="23" t="n">
+      <c r="C32" s="86"/>
+      <c r="D32" s="23">
         <v>0.05</v>
       </c>
-      <c r="E32" s="133" t="n">
+      <c r="E32" s="85">
         <v>0</v>
       </c>
       <c r="F32" s="38" t="s">
@@ -3121,22 +2991,22 @@
       <c r="G32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="17" t="n">
+      <c r="H32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="17">
         <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="132" t="n"/>
-      <c r="D33" s="23" t="n">
+      <c r="C33" s="86"/>
+      <c r="D33" s="23">
         <v>0.1</v>
       </c>
-      <c r="E33" s="133" t="n">
+      <c r="E33" s="85">
         <v>0</v>
       </c>
       <c r="F33" s="38" t="s">
@@ -3145,100 +3015,100 @@
       <c r="G33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="17" t="n">
+      <c r="H33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="17">
         <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="132" t="n"/>
-      <c r="D34" s="23" t="n">
+      <c r="C34" s="86"/>
+      <c r="D34" s="23">
         <v>0.1</v>
       </c>
-      <c r="E34" s="133" t="n">
+      <c r="E34" s="85">
         <v>0</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="1" t="n"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="17" t="n">
+    <row r="35" spans="1:8">
+      <c r="A35" s="17">
         <v>29</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="138" t="n"/>
-      <c r="D35" s="21" t="n"/>
-      <c r="E35" s="135" t="n"/>
-      <c r="F35" s="1" t="n"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="1" t="n"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="17" t="n">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="17">
         <v>30</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="138" t="n"/>
-      <c r="D36" s="21" t="n"/>
-      <c r="E36" s="135" t="n"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="88"/>
       <c r="F36" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="37" s="77" spans="1:9">
-      <c r="A37" s="17" t="n">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A37" s="17">
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="132" t="n"/>
-      <c r="D37" s="23" t="n">
+      <c r="C37" s="86"/>
+      <c r="D37" s="23">
         <v>0.05</v>
       </c>
-      <c r="E37" s="139" t="n">
+      <c r="E37" s="93">
         <v>0</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="1" t="n"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="38" s="77" spans="1:9">
-      <c r="A38" s="17" t="n">
+    <row r="38" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A38" s="17">
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="132" t="n"/>
-      <c r="D38" s="23" t="n">
+      <c r="C38" s="86"/>
+      <c r="D38" s="23">
         <v>0.1</v>
       </c>
-      <c r="E38" s="139" t="n">
+      <c r="E38" s="93">
         <v>0</v>
       </c>
       <c r="F38" s="38" t="s">
@@ -3247,20 +3117,20 @@
       <c r="G38" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="34" t="n"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="17" t="n">
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="17">
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="132" t="n"/>
-      <c r="D39" s="23" t="n">
+      <c r="C39" s="86"/>
+      <c r="D39" s="23">
         <v>0.1</v>
       </c>
-      <c r="E39" s="139" t="n">
+      <c r="E39" s="93">
         <v>0</v>
       </c>
       <c r="F39" s="38" t="s">
@@ -3269,20 +3139,20 @@
       <c r="G39" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="34" t="n"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="17" t="n">
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="17">
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="132" t="n"/>
-      <c r="D40" s="23" t="n">
+      <c r="C40" s="86"/>
+      <c r="D40" s="23">
         <v>0.1</v>
       </c>
-      <c r="E40" s="139" t="n">
+      <c r="E40" s="93">
         <v>0</v>
       </c>
       <c r="F40" s="38" t="s">
@@ -3295,54 +3165,54 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="17" t="n">
+    <row r="41" spans="1:8">
+      <c r="A41" s="17">
         <v>35</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="138" t="n"/>
-      <c r="D41" s="21" t="n"/>
-      <c r="E41" s="135" t="n"/>
-      <c r="F41" s="38" t="n"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="35" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="42" s="77" spans="1:9">
-      <c r="A42" s="17" t="n">
+      <c r="H41" s="35"/>
+    </row>
+    <row r="42" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A42" s="17">
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="132" t="n"/>
-      <c r="D42" s="23" t="n">
+      <c r="C42" s="86"/>
+      <c r="D42" s="23">
         <v>0.03</v>
       </c>
-      <c r="E42" s="139" t="n">
+      <c r="E42" s="93">
         <v>0</v>
       </c>
       <c r="F42" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="1" t="n"/>
-      <c r="H42" s="34" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="43" s="77" spans="1:9">
-      <c r="A43" s="17" t="n">
+      <c r="G42" s="1"/>
+      <c r="H42" s="34"/>
+    </row>
+    <row r="43" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A43" s="17">
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="132" t="n"/>
-      <c r="D43" s="23" t="n">
+      <c r="C43" s="86"/>
+      <c r="D43" s="23">
         <v>0.05</v>
       </c>
-      <c r="E43" s="139" t="n">
+      <c r="E43" s="93">
         <v>0</v>
       </c>
       <c r="F43" s="38" t="s">
@@ -3351,20 +3221,20 @@
       <c r="G43" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="34" t="n"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="17" t="n">
+      <c r="H43" s="34"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="17">
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="132" t="n"/>
-      <c r="D44" s="23" t="n">
+      <c r="C44" s="86"/>
+      <c r="D44" s="23">
         <v>0.25</v>
       </c>
-      <c r="E44" s="139" t="n">
+      <c r="E44" s="93">
         <v>0</v>
       </c>
       <c r="F44" s="38" t="s">
@@ -3377,38 +3247,38 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="17" t="n">
+    <row r="45" spans="1:8">
+      <c r="A45" s="17">
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="132" t="n"/>
-      <c r="D45" s="23" t="n">
+      <c r="C45" s="86"/>
+      <c r="D45" s="23">
         <v>0.2</v>
       </c>
-      <c r="E45" s="139" t="n">
+      <c r="E45" s="93">
         <v>0</v>
       </c>
       <c r="F45" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G45" s="1" t="n"/>
-      <c r="H45" s="34" t="n"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="17" t="n">
+      <c r="G45" s="1"/>
+      <c r="H45" s="34"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17">
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="132" t="n"/>
-      <c r="D46" s="23" t="n">
+      <c r="C46" s="86"/>
+      <c r="D46" s="23">
         <v>0.4</v>
       </c>
-      <c r="E46" s="139" t="n">
+      <c r="E46" s="93">
         <v>0</v>
       </c>
       <c r="F46" s="38" t="s">
@@ -3417,19 +3287,19 @@
       <c r="G46" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="35" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="47" s="77" spans="1:9">
-      <c r="A47" s="17" t="n">
+      <c r="H46" s="35"/>
+    </row>
+    <row r="47" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A47" s="17">
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="138" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="135" t="n"/>
-      <c r="F47" s="1" t="n"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="1"/>
       <c r="G47" s="12" t="s">
         <v>88</v>
       </c>
@@ -3437,40 +3307,40 @@
         <v>89</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="48" s="77" spans="1:9">
-      <c r="A48" s="17" t="n">
+    <row r="48" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A48" s="17">
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="132" t="n"/>
-      <c r="D48" s="23" t="n">
+      <c r="C48" s="86"/>
+      <c r="D48" s="23">
         <v>0.03</v>
       </c>
-      <c r="E48" s="139" t="n">
+      <c r="E48" s="93">
         <v>0</v>
       </c>
       <c r="F48" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G48" s="1" t="n"/>
-      <c r="H48" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.75" r="49" s="77" spans="1:9">
-      <c r="A49" s="17" t="n">
+      <c r="G48" s="1"/>
+      <c r="H48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A49" s="17">
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C49" s="132" t="n"/>
-      <c r="D49" s="23" t="n">
+      <c r="C49" s="86"/>
+      <c r="D49" s="23">
         <v>0.05</v>
       </c>
-      <c r="E49" s="139" t="n">
+      <c r="E49" s="93">
         <v>0</v>
       </c>
       <c r="F49" s="38" t="s">
@@ -3479,22 +3349,22 @@
       <c r="G49" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="17" t="n">
+      <c r="H49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="17">
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="132" t="n"/>
-      <c r="D50" s="23" t="n">
+      <c r="C50" s="86"/>
+      <c r="D50" s="23">
         <v>0.25</v>
       </c>
-      <c r="E50" s="139" t="n">
+      <c r="E50" s="93">
         <v>0</v>
       </c>
       <c r="F50" s="38" t="s">
@@ -3503,42 +3373,42 @@
       <c r="G50" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H50" s="37" t="n"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="17" t="n">
+      <c r="H50" s="37"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="17">
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="132" t="n"/>
-      <c r="D51" s="23" t="n">
+      <c r="C51" s="86"/>
+      <c r="D51" s="23">
         <v>0.2</v>
       </c>
-      <c r="E51" s="139" t="n">
+      <c r="E51" s="93">
         <v>0</v>
       </c>
       <c r="F51" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="1" t="n"/>
-      <c r="H51" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="17" t="n">
+      <c r="G51" s="1"/>
+      <c r="H51" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="17">
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="132" t="n"/>
-      <c r="D52" s="23" t="n">
+      <c r="C52" s="86"/>
+      <c r="D52" s="23">
         <v>0.4</v>
       </c>
-      <c r="E52" s="139" t="n">
+      <c r="E52" s="93">
         <v>0</v>
       </c>
       <c r="F52" s="38" t="s">
@@ -3547,83 +3417,83 @@
       <c r="G52" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H52" s="37" t="n"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="17" t="n">
+      <c r="H52" s="37"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="17">
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="138" t="n"/>
-      <c r="D53" s="21" t="n"/>
-      <c r="E53" s="135" t="n"/>
-      <c r="F53" s="1" t="n"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="1"/>
       <c r="G53" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="54" s="77" spans="1:9">
-      <c r="A54" s="17" t="n">
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A54" s="17">
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="132" t="n"/>
-      <c r="D54" s="23" t="n">
+      <c r="C54" s="86"/>
+      <c r="D54" s="23">
         <v>0.03</v>
       </c>
-      <c r="E54" s="139" t="n">
+      <c r="E54" s="93">
         <v>0</v>
       </c>
       <c r="F54" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G54" s="1" t="n"/>
-      <c r="H54" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.75" r="55" s="77" spans="1:9">
-      <c r="A55" s="17" t="n">
+      <c r="G54" s="1"/>
+      <c r="H54" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A55" s="17">
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="132" t="n"/>
-      <c r="D55" s="23" t="n">
+      <c r="C55" s="86"/>
+      <c r="D55" s="23">
         <v>0.05</v>
       </c>
-      <c r="E55" s="139" t="n">
+      <c r="E55" s="93">
         <v>0</v>
       </c>
       <c r="F55" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="1" t="n"/>
-      <c r="H55" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.75" r="56" s="77" spans="1:9">
-      <c r="A56" s="17" t="n">
+      <c r="G55" s="1"/>
+      <c r="H55" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A56" s="17">
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="140" t="n">
-        <v>249.0092035276758</v>
-      </c>
-      <c r="D56" s="23" t="n">
+      <c r="C56" s="94">
+        <v>249.00920352767579</v>
+      </c>
+      <c r="D56" s="23">
         <v>0.25</v>
       </c>
-      <c r="E56" s="139" t="n">
-        <v>62.25230088191894</v>
+      <c r="E56" s="93">
+        <v>62.252300881918941</v>
       </c>
       <c r="F56" s="38" t="s">
         <v>81</v>
@@ -3635,62 +3505,62 @@
         <v>104</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="57" s="77" spans="1:9">
-      <c r="A57" s="17" t="n">
+    <row r="57" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A57" s="17">
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="132" t="n"/>
-      <c r="D57" s="23" t="n">
+      <c r="C57" s="86"/>
+      <c r="D57" s="23">
         <v>0.03</v>
       </c>
-      <c r="E57" s="139" t="n">
+      <c r="E57" s="93">
         <v>0</v>
       </c>
       <c r="F57" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G57" s="1" t="n"/>
-      <c r="H57" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="36.75" r="58" s="77" spans="1:9">
-      <c r="A58" s="17" t="n">
+      <c r="G57" s="1"/>
+      <c r="H57" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A58" s="17">
         <v>52</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="132" t="n"/>
-      <c r="D58" s="23" t="n">
+      <c r="C58" s="86"/>
+      <c r="D58" s="23">
         <v>0.05</v>
       </c>
-      <c r="E58" s="139" t="n">
+      <c r="E58" s="93">
         <v>0</v>
       </c>
       <c r="F58" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="1" t="n"/>
-      <c r="H58" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="24.75" r="59" s="77" spans="1:9">
-      <c r="A59" s="17" t="n">
+      <c r="G58" s="1"/>
+      <c r="H58" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A59" s="17">
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="141" t="n"/>
-      <c r="D59" s="23" t="n">
+      <c r="C59" s="95"/>
+      <c r="D59" s="23">
         <v>0.25</v>
       </c>
-      <c r="E59" s="139" t="n">
+      <c r="E59" s="93">
         <v>0</v>
       </c>
       <c r="F59" s="38" t="s">
@@ -3699,42 +3569,42 @@
       <c r="G59" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="37" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="60" s="77" spans="1:9">
-      <c r="A60" s="17" t="n">
+      <c r="H59" s="37"/>
+    </row>
+    <row r="60" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A60" s="17">
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="141" t="n"/>
-      <c r="D60" s="23" t="n">
+      <c r="C60" s="95"/>
+      <c r="D60" s="23">
         <v>0.25</v>
       </c>
-      <c r="E60" s="135" t="n"/>
+      <c r="E60" s="88"/>
       <c r="F60" s="38" t="s">
         <v>110</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H60" s="37" t="n"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="17" t="n">
+      <c r="H60" s="37"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="17">
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="140" t="n">
+      <c r="C61" s="94">
         <v>361003.77</v>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="139" t="n">
+      <c r="E61" s="93">
         <v>361003.77</v>
       </c>
       <c r="F61" s="38" t="s">
@@ -3747,21 +3617,21 @@
         <v>114</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="62" s="77" spans="1:9">
-      <c r="A62" s="17" t="n">
+    <row r="62" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A62" s="17">
         <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="132" t="n"/>
-      <c r="D62" s="23" t="n">
+      <c r="C62" s="86"/>
+      <c r="D62" s="23">
         <v>1</v>
       </c>
-      <c r="E62" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" s="1" t="n"/>
+      <c r="E62" s="93">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="38" t="s">
         <v>18</v>
       </c>
@@ -3769,21 +3639,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="17" t="n">
+    <row r="63" spans="1:8">
+      <c r="A63" s="17">
         <v>57</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="132" t="n"/>
-      <c r="D63" s="23" t="n">
+      <c r="C63" s="86"/>
+      <c r="D63" s="23">
         <v>1</v>
       </c>
-      <c r="E63" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="12" t="n"/>
+      <c r="E63" s="93">
+        <v>0</v>
+      </c>
+      <c r="F63" s="12"/>
       <c r="G63" s="38" t="s">
         <v>18</v>
       </c>
@@ -3791,17 +3661,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="17" t="n">
+    <row r="64" spans="1:8">
+      <c r="A64" s="17">
         <v>58</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C64" s="138" t="n"/>
-      <c r="D64" s="21" t="n"/>
-      <c r="E64" s="135" t="n"/>
-      <c r="F64" s="1" t="n"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="1"/>
       <c r="G64" s="38" t="s">
         <v>18</v>
       </c>
@@ -3810,106 +3680,106 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="17" t="n">
+      <c r="A65" s="17">
         <v>59</v>
       </c>
       <c r="B65" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="132" t="n"/>
-      <c r="D65" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="139" t="n">
+      <c r="C65" s="86"/>
+      <c r="D65" s="23">
+        <v>0</v>
+      </c>
+      <c r="E65" s="93">
         <v>0</v>
       </c>
       <c r="F65" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G65" s="1" t="n"/>
-      <c r="H65" s="25" t="n"/>
-      <c r="I65" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="66" s="77" spans="1:9">
-      <c r="A66" s="17" t="n">
+      <c r="G65" s="1"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A66" s="17">
         <v>60</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="132" t="n"/>
-      <c r="D66" s="21" t="n"/>
-      <c r="E66" s="135" t="n"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="88"/>
       <c r="F66" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G66" s="1" t="n"/>
-      <c r="H66" s="25" t="n"/>
-      <c r="I66" s="1" t="n"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="17" t="n">
+      <c r="A67" s="17">
         <v>61</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C67" s="132" t="n"/>
-      <c r="D67" s="21" t="n"/>
-      <c r="E67" s="135" t="n"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="88"/>
       <c r="F67" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G67" s="1" t="n"/>
-      <c r="H67" s="25" t="n"/>
-      <c r="I67" s="1" t="n"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="17" t="n">
+      <c r="A68" s="17">
         <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="132" t="n"/>
-      <c r="D68" s="21" t="n"/>
-      <c r="E68" s="135" t="n"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="88"/>
       <c r="F68" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="1" t="n"/>
-      <c r="H68" s="25" t="n"/>
-      <c r="I68" s="1" t="n"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="17" t="n">
+      <c r="A69" s="17">
         <v>63</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="132" t="n"/>
-      <c r="D69" s="21" t="n"/>
-      <c r="E69" s="135" t="n"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="88"/>
       <c r="F69" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G69" s="1" t="n"/>
-      <c r="H69" s="25" t="n"/>
-      <c r="I69" s="1" t="n"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="17" t="n">
+      <c r="A70" s="17">
         <v>64</v>
       </c>
       <c r="B70" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="132" t="n"/>
-      <c r="D70" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="139" t="n">
+      <c r="C70" s="86"/>
+      <c r="D70" s="23">
+        <v>0</v>
+      </c>
+      <c r="E70" s="93">
         <v>0</v>
       </c>
       <c r="F70" s="38" t="s">
@@ -3918,42 +3788,42 @@
       <c r="G70" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="25" t="n"/>
-      <c r="I70" s="12" t="n">
+      <c r="H70" s="25"/>
+      <c r="I70" s="12">
         <v>461392.98</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="17" t="n">
+      <c r="A71" s="17">
         <v>65</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="132" t="n"/>
-      <c r="D71" s="21" t="n"/>
-      <c r="E71" s="135" t="n"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="88"/>
       <c r="F71" s="38" t="s">
         <v>81</v>
       </c>
       <c r="G71" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="25" t="n"/>
-      <c r="I71" s="1" t="n"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="17" t="n">
+      <c r="A72" s="17">
         <v>66</v>
       </c>
       <c r="B72" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="132" t="n"/>
-      <c r="D72" s="23" t="n">
+      <c r="C72" s="86"/>
+      <c r="D72" s="23">
         <v>0.15</v>
       </c>
-      <c r="E72" s="139" t="n">
+      <c r="E72" s="93">
         <v>0</v>
       </c>
       <c r="F72" s="38" t="s">
@@ -3962,152 +3832,152 @@
       <c r="G72" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H72" s="25" t="n"/>
-      <c r="I72" s="1" t="n"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="17" t="n">
+      <c r="A73" s="17">
         <v>67</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="132" t="n"/>
-      <c r="D73" s="21" t="n"/>
-      <c r="E73" s="135" t="n"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="88"/>
       <c r="F73" s="38" t="s">
         <v>81</v>
       </c>
       <c r="G73" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H73" s="25" t="n"/>
-      <c r="I73" s="1" t="n"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="17" t="n">
+      <c r="A74" s="17">
         <v>68</v>
       </c>
       <c r="B74" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="138" t="n"/>
-      <c r="D74" s="21" t="n"/>
-      <c r="E74" s="135" t="n"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="88"/>
       <c r="F74" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G74" s="1" t="n"/>
-      <c r="H74" s="25" t="n"/>
-      <c r="I74" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="75" s="77" spans="1:9">
-      <c r="A75" s="17" t="n">
+      <c r="G74" s="1"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A75" s="17">
         <v>69</v>
       </c>
       <c r="B75" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="132" t="n"/>
-      <c r="D75" s="23" t="n">
+      <c r="C75" s="86"/>
+      <c r="D75" s="23">
         <v>0.25</v>
       </c>
-      <c r="E75" s="139" t="n">
+      <c r="E75" s="93">
         <v>0</v>
       </c>
       <c r="F75" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G75" s="1" t="n"/>
-      <c r="H75" s="25" t="n"/>
-      <c r="I75" s="1" t="n"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="17" t="n">
+      <c r="A76" s="17">
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="132" t="n"/>
-      <c r="D76" s="21" t="n"/>
-      <c r="E76" s="135" t="n"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="88"/>
       <c r="F76" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="1" t="n"/>
-      <c r="H76" s="25" t="n"/>
-      <c r="I76" s="1" t="n"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="17" t="n">
+      <c r="A77" s="17">
         <v>71</v>
       </c>
       <c r="B77" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="132" t="n"/>
-      <c r="D77" s="23" t="n">
+      <c r="C77" s="86"/>
+      <c r="D77" s="23">
         <v>0.5</v>
       </c>
-      <c r="E77" s="139" t="n">
+      <c r="E77" s="93">
         <v>0</v>
       </c>
       <c r="F77" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="1" t="n"/>
-      <c r="H77" s="25" t="n"/>
-      <c r="I77" s="1" t="n"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="17" t="n">
+      <c r="A78" s="17">
         <v>72</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="132" t="n"/>
-      <c r="D78" s="21" t="n"/>
-      <c r="E78" s="135" t="n"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="88"/>
       <c r="F78" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="1" t="n"/>
-      <c r="H78" s="25" t="n"/>
-      <c r="I78" s="1" t="n"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="17" t="n">
+      <c r="A79" s="17">
         <v>73</v>
       </c>
       <c r="B79" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="138" t="n"/>
-      <c r="D79" s="21" t="n"/>
-      <c r="E79" s="135" t="n"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="88"/>
       <c r="F79" s="38" t="s">
         <v>125</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="H79" s="25" t="n"/>
-      <c r="I79" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="80" s="77" spans="1:9">
-      <c r="A80" s="17" t="n">
+      <c r="H79" s="25"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A80" s="17">
         <v>74</v>
       </c>
       <c r="B80" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="132" t="n"/>
-      <c r="D80" s="23" t="n">
+      <c r="C80" s="86"/>
+      <c r="D80" s="23">
         <v>0.25</v>
       </c>
-      <c r="E80" s="139" t="n">
+      <c r="E80" s="93">
         <v>0</v>
       </c>
       <c r="F80" s="38" t="s">
@@ -4116,21 +3986,21 @@
       <c r="G80" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="25" t="n"/>
-      <c r="I80" s="1" t="n"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="17" t="n">
+      <c r="H80" s="25"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="17">
         <v>75</v>
       </c>
       <c r="B81" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="132" t="n"/>
-      <c r="D81" s="23" t="n">
+      <c r="C81" s="86"/>
+      <c r="D81" s="23">
         <v>1</v>
       </c>
-      <c r="E81" s="139" t="n">
+      <c r="E81" s="93">
         <v>0</v>
       </c>
       <c r="F81" s="38" t="s">
@@ -4139,41 +4009,41 @@
       <c r="G81" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="36" r="82" s="77" spans="1:9">
-      <c r="A82" s="17" t="n">
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8" ht="36" customHeight="1">
+      <c r="A82" s="17">
         <v>76</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="138" t="n"/>
-      <c r="D82" s="21" t="n"/>
-      <c r="E82" s="135" t="n"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="88"/>
       <c r="F82" s="29" t="s">
         <v>143</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="25" t="n"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="17" t="n">
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="17">
         <v>77</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="142" t="n">
-        <v>18627.077924</v>
-      </c>
-      <c r="D83" s="23" t="n">
+      <c r="C83" s="96">
+        <v>18627.077924000001</v>
+      </c>
+      <c r="D83" s="23">
         <v>1</v>
       </c>
-      <c r="E83" s="139" t="n">
-        <v>18627.077924</v>
+      <c r="E83" s="93">
+        <v>18627.077924000001</v>
       </c>
       <c r="F83" s="38" t="s">
         <v>145</v>
@@ -4185,18 +4055,18 @@
         <v>146</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="84" s="77" spans="1:9">
-      <c r="A84" s="17" t="n">
+    <row r="84" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A84" s="17">
         <v>78</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="132" t="n"/>
-      <c r="D84" s="23" t="n">
+      <c r="C84" s="86"/>
+      <c r="D84" s="23">
         <v>1</v>
       </c>
-      <c r="E84" s="139" t="n">
+      <c r="E84" s="93">
         <v>0</v>
       </c>
       <c r="F84" s="38" t="s">
@@ -4209,18 +4079,18 @@
         <v>148</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="85" s="77" spans="1:9">
-      <c r="A85" s="17" t="n">
+    <row r="85" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A85" s="17">
         <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="132" t="n"/>
-      <c r="D85" s="23" t="n">
+      <c r="C85" s="86"/>
+      <c r="D85" s="23">
         <v>0.2</v>
       </c>
-      <c r="E85" s="139" t="n">
+      <c r="E85" s="93">
         <v>0</v>
       </c>
       <c r="F85" s="38" t="s">
@@ -4233,18 +4103,18 @@
         <v>148</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="86" s="77" spans="1:9">
-      <c r="A86" s="17" t="n">
+    <row r="86" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A86" s="17">
         <v>80</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="132" t="n"/>
-      <c r="D86" s="23" t="n">
+      <c r="C86" s="86"/>
+      <c r="D86" s="23">
         <v>1</v>
       </c>
-      <c r="E86" s="139" t="n">
+      <c r="E86" s="93">
         <v>0</v>
       </c>
       <c r="F86" s="38" t="s">
@@ -4257,78 +4127,78 @@
         <v>148</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="87" s="77" spans="1:9">
-      <c r="A87" s="17" t="n">
+    <row r="87" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A87" s="17">
         <v>81</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C87" s="132" t="n"/>
-      <c r="D87" s="23" t="n">
+      <c r="C87" s="86"/>
+      <c r="D87" s="23">
         <v>1</v>
       </c>
-      <c r="E87" s="139" t="n">
+      <c r="E87" s="93">
         <v>0</v>
       </c>
       <c r="F87" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G87" s="1" t="n"/>
-      <c r="H87" s="25" t="n"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="17" t="n">
+      <c r="G87" s="1"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="17">
         <v>82</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="132" t="n"/>
-      <c r="D88" s="23" t="n">
+      <c r="C88" s="86"/>
+      <c r="D88" s="23">
         <v>1</v>
       </c>
-      <c r="E88" s="139" t="n">
+      <c r="E88" s="93">
         <v>0</v>
       </c>
       <c r="F88" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G88" s="1" t="n"/>
-      <c r="H88" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="89" s="77" spans="1:9">
-      <c r="A89" s="17" t="n">
+      <c r="G88" s="1"/>
+      <c r="H88" s="25"/>
+    </row>
+    <row r="89" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A89" s="17">
         <v>83</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="132" t="n"/>
-      <c r="D89" s="23" t="n">
+      <c r="C89" s="86"/>
+      <c r="D89" s="23">
         <v>1</v>
       </c>
-      <c r="E89" s="139" t="n">
+      <c r="E89" s="93">
         <v>0</v>
       </c>
       <c r="F89" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G89" s="1" t="n"/>
-      <c r="H89" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="90" s="77" spans="1:9">
-      <c r="A90" s="17" t="n">
+      <c r="G89" s="1"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A90" s="17">
         <v>84</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="132" t="n"/>
-      <c r="D90" s="23" t="n">
+      <c r="C90" s="86"/>
+      <c r="D90" s="23">
         <v>1</v>
       </c>
-      <c r="E90" s="139" t="n">
+      <c r="E90" s="93">
         <v>0</v>
       </c>
       <c r="F90" s="38" t="s">
@@ -4337,99 +4207,99 @@
       <c r="G90" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H90" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="91" s="77" spans="1:9">
-      <c r="A91" s="17" t="n">
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A91" s="17">
         <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="138" t="n"/>
-      <c r="D91" s="21" t="n"/>
-      <c r="E91" s="135" t="n"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="88"/>
       <c r="F91" s="38" t="s">
         <v>145</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H91" s="25" t="n"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="17" t="n">
+      <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="17">
         <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C92" s="132" t="n"/>
-      <c r="D92" s="23" t="n">
+      <c r="C92" s="86"/>
+      <c r="D92" s="23">
         <v>1</v>
       </c>
-      <c r="E92" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1" t="n"/>
+      <c r="E92" s="93">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1"/>
       <c r="G92" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H92" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="93" s="77" spans="1:9">
-      <c r="A93" s="17" t="n">
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A93" s="17">
         <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C93" s="132" t="n"/>
-      <c r="D93" s="23" t="n">
+      <c r="C93" s="86"/>
+      <c r="D93" s="23">
         <v>1</v>
       </c>
-      <c r="E93" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1" t="n"/>
+      <c r="E93" s="93">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1"/>
       <c r="G93" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="H93" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="94" s="77" spans="1:9">
-      <c r="A94" s="17" t="n">
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A94" s="17">
         <v>88</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C94" s="138" t="n"/>
-      <c r="D94" s="41" t="n"/>
-      <c r="E94" s="135" t="n"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="88"/>
       <c r="F94" s="38" t="s">
         <v>145</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="1" t="n"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="17" t="n">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="17">
         <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="132" t="n"/>
-      <c r="D95" s="23" t="n">
+      <c r="C95" s="86"/>
+      <c r="D95" s="23">
         <v>0.05</v>
       </c>
-      <c r="E95" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1" t="n"/>
+      <c r="E95" s="93">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1"/>
       <c r="G95" s="12" t="s">
         <v>168</v>
       </c>
@@ -4437,34 +4307,34 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="17" t="n">
+    <row r="96" spans="1:8">
+      <c r="A96" s="17">
         <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C96" s="138" t="n"/>
-      <c r="D96" s="21" t="n"/>
-      <c r="E96" s="135" t="n"/>
-      <c r="F96" s="1" t="n"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H96" s="43" t="n"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="17" t="n">
+      <c r="H96" s="43"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="17">
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="132" t="n"/>
-      <c r="D97" s="23" t="n">
+      <c r="C97" s="86"/>
+      <c r="D97" s="23">
         <v>0.1</v>
       </c>
-      <c r="E97" s="139" t="n">
+      <c r="E97" s="93">
         <v>0</v>
       </c>
       <c r="F97" s="38" t="s">
@@ -4473,20 +4343,20 @@
       <c r="G97" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H97" s="43" t="n"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="17" t="n">
+      <c r="H97" s="43"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="17">
         <v>92</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C98" s="132" t="n"/>
-      <c r="D98" s="23" t="n">
+      <c r="C98" s="86"/>
+      <c r="D98" s="23">
         <v>0.3</v>
       </c>
-      <c r="E98" s="139" t="n">
+      <c r="E98" s="93">
         <v>0</v>
       </c>
       <c r="F98" s="38" t="s">
@@ -4495,56 +4365,56 @@
       <c r="G98" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H98" s="43" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="99" s="77" spans="1:9">
-      <c r="A99" s="17" t="n">
+      <c r="H98" s="43"/>
+    </row>
+    <row r="99" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A99" s="17">
         <v>93</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="138" t="n"/>
-      <c r="D99" s="21" t="n"/>
-      <c r="E99" s="135" t="n"/>
-      <c r="F99" s="1" t="n"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="88"/>
+      <c r="F99" s="1"/>
       <c r="G99" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="H99" s="43" t="n"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="17" t="n">
+      <c r="H99" s="43"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="17">
         <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="132" t="n"/>
-      <c r="D100" s="23" t="n">
+      <c r="C100" s="86"/>
+      <c r="D100" s="23">
         <v>0.1</v>
       </c>
-      <c r="E100" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1" t="n"/>
+      <c r="E100" s="93">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1"/>
       <c r="G100" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H100" s="44" t="n"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="17" t="n">
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="17">
         <v>95</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="132" t="n"/>
-      <c r="D101" s="23" t="n">
+      <c r="C101" s="86"/>
+      <c r="D101" s="23">
         <v>0.3</v>
       </c>
-      <c r="E101" s="139" t="n">
+      <c r="E101" s="93">
         <v>0</v>
       </c>
       <c r="F101" s="38" t="s">
@@ -4553,18 +4423,18 @@
       <c r="G101" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H101" s="43" t="n"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="17" t="n">
+      <c r="H101" s="43"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="17">
         <v>96</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="138" t="n"/>
-      <c r="D102" s="21" t="n"/>
-      <c r="E102" s="135" t="n"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="88"/>
       <c r="F102" s="38" t="s">
         <v>47</v>
       </c>
@@ -4575,267 +4445,267 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="17" t="n">
+    <row r="103" spans="1:8">
+      <c r="A103" s="17">
         <v>97</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="132" t="n"/>
-      <c r="D103" s="23" t="n">
+      <c r="C103" s="86"/>
+      <c r="D103" s="23">
         <v>0.4</v>
       </c>
-      <c r="E103" s="139" t="n">
+      <c r="E103" s="93">
         <v>0</v>
       </c>
       <c r="F103" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G103" s="1" t="n"/>
-      <c r="H103" s="26" t="n"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="17" t="n">
+      <c r="G103" s="1"/>
+      <c r="H103" s="26"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="17">
         <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="132" t="n"/>
-      <c r="D104" s="23" t="n">
+      <c r="C104" s="86"/>
+      <c r="D104" s="23">
         <v>0.4</v>
       </c>
-      <c r="E104" s="139" t="n">
+      <c r="E104" s="93">
         <v>0</v>
       </c>
       <c r="F104" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G104" s="1" t="n"/>
+      <c r="G104" s="1"/>
       <c r="H104" s="27" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="17" t="n">
+    <row r="105" spans="1:8">
+      <c r="A105" s="17">
         <v>99</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="138" t="n"/>
-      <c r="D105" s="21" t="n"/>
-      <c r="E105" s="135" t="n"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="88"/>
       <c r="F105" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G105" s="1" t="n"/>
-      <c r="H105" s="26" t="n"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="17" t="n">
+      <c r="G105" s="1"/>
+      <c r="H105" s="26"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="17">
         <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C106" s="132" t="n"/>
-      <c r="D106" s="23" t="n">
+      <c r="C106" s="86"/>
+      <c r="D106" s="23">
         <v>0.4</v>
       </c>
-      <c r="E106" s="139" t="n">
+      <c r="E106" s="93">
         <v>0</v>
       </c>
       <c r="F106" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G106" s="1" t="n"/>
-      <c r="H106" s="25" t="n"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="17" t="n">
+      <c r="G106" s="1"/>
+      <c r="H106" s="25"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="17">
         <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C107" s="132" t="n"/>
-      <c r="D107" s="23" t="n">
+      <c r="C107" s="86"/>
+      <c r="D107" s="23">
         <v>1</v>
       </c>
-      <c r="E107" s="139" t="n">
+      <c r="E107" s="93">
         <v>0</v>
       </c>
       <c r="F107" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G107" s="1" t="n"/>
-      <c r="H107" s="26" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="108" s="77" spans="1:9">
-      <c r="A108" s="17" t="n">
+      <c r="G107" s="1"/>
+      <c r="H107" s="26"/>
+    </row>
+    <row r="108" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A108" s="17">
         <v>102</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C108" s="138" t="n"/>
-      <c r="D108" s="21" t="n"/>
-      <c r="E108" s="135" t="n"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G108" s="1" t="n"/>
-      <c r="H108" s="25" t="n"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="17" t="n">
+      <c r="G108" s="1"/>
+      <c r="H108" s="25"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="17">
         <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C109" s="132" t="n"/>
-      <c r="D109" s="23" t="n">
+      <c r="C109" s="86"/>
+      <c r="D109" s="23">
         <v>1</v>
       </c>
-      <c r="E109" s="139" t="n">
+      <c r="E109" s="93">
         <v>0</v>
       </c>
       <c r="F109" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G109" s="1" t="n"/>
-      <c r="H109" s="26" t="n"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="17" t="n">
+      <c r="G109" s="1"/>
+      <c r="H109" s="26"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="17">
         <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="132" t="n"/>
-      <c r="D110" s="23" t="n">
+      <c r="C110" s="86"/>
+      <c r="D110" s="23">
         <v>1</v>
       </c>
-      <c r="E110" s="139" t="n">
+      <c r="E110" s="93">
         <v>0</v>
       </c>
       <c r="F110" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G110" s="1" t="n"/>
-      <c r="H110" s="25" t="n"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="17" t="n">
+      <c r="G110" s="1"/>
+      <c r="H110" s="25"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="17">
         <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C111" s="138" t="n"/>
-      <c r="D111" s="21" t="n"/>
-      <c r="E111" s="135" t="n"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G111" s="1" t="n"/>
-      <c r="H111" s="26" t="n"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="17" t="n">
+      <c r="G111" s="1"/>
+      <c r="H111" s="26"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="17">
         <v>106</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C112" s="132" t="n"/>
-      <c r="D112" s="23" t="n">
+      <c r="C112" s="86"/>
+      <c r="D112" s="23">
         <v>1</v>
       </c>
-      <c r="E112" s="139" t="n">
+      <c r="E112" s="93">
         <v>0</v>
       </c>
       <c r="F112" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G112" s="1" t="n"/>
-      <c r="H112" s="25" t="n"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="17" t="n">
+      <c r="G112" s="1"/>
+      <c r="H112" s="25"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="17">
         <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C113" s="132" t="n"/>
-      <c r="D113" s="21" t="n"/>
-      <c r="E113" s="139" t="n">
+      <c r="C113" s="86"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="93">
         <v>0</v>
       </c>
       <c r="F113" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G113" s="1" t="n"/>
+      <c r="G113" s="1"/>
       <c r="H113" s="42" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="17" t="n">
+    <row r="114" spans="1:8">
+      <c r="A114" s="17">
         <v>108</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C114" s="138" t="n"/>
-      <c r="D114" s="21" t="n"/>
-      <c r="E114" s="135" t="n"/>
-      <c r="F114" s="1" t="n"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="88"/>
+      <c r="F114" s="1"/>
       <c r="G114" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="43" t="n"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="17" t="n">
+      <c r="H114" s="43"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="17">
         <v>109</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C115" s="132" t="n"/>
-      <c r="D115" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" s="1" t="n"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="23">
+        <v>0</v>
+      </c>
+      <c r="E115" s="93">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1"/>
       <c r="G115" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="43" t="n"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="17" t="n">
+      <c r="H115" s="43"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="17">
         <v>110</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="132" t="n"/>
-      <c r="D116" s="143" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E116" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" s="1" t="n"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E116" s="93">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1"/>
       <c r="G116" s="38" t="s">
         <v>18</v>
       </c>
@@ -4843,21 +4713,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="17" t="n">
+    <row r="117" spans="1:8">
+      <c r="A117" s="17">
         <v>111</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="144" t="n"/>
-      <c r="D117" s="143" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E117" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" s="1" t="n"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E117" s="93">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1"/>
       <c r="G117" s="38" t="s">
         <v>18</v>
       </c>
@@ -4865,21 +4735,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="17" t="n">
+    <row r="118" spans="1:8">
+      <c r="A118" s="17">
         <v>112</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="132" t="n"/>
-      <c r="D118" s="143" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E118" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" s="1" t="n"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E118" s="93">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1"/>
       <c r="G118" s="38" t="s">
         <v>18</v>
       </c>
@@ -4887,18 +4757,18 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="17" t="n">
+    <row r="119" spans="1:8">
+      <c r="A119" s="17">
         <v>113</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="132" t="n"/>
-      <c r="D119" s="143" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E119" s="139" t="n">
+      <c r="C119" s="86"/>
+      <c r="D119" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E119" s="93">
         <v>0</v>
       </c>
       <c r="F119" s="38" t="s">
@@ -4911,34 +4781,34 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="17" t="n">
+    <row r="120" spans="1:8">
+      <c r="A120" s="17">
         <v>114</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="132" t="n"/>
-      <c r="D120" s="145" t="n"/>
-      <c r="E120" s="135" t="n"/>
-      <c r="F120" s="1" t="n"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="1"/>
       <c r="G120" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H120" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="121" s="77" spans="1:9">
-      <c r="A121" s="17" t="n">
+      <c r="H120" s="25"/>
+    </row>
+    <row r="121" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A121" s="17">
         <v>115</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C121" s="132" t="n"/>
-      <c r="D121" s="143" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E121" s="139" t="n">
+      <c r="C121" s="86"/>
+      <c r="D121" s="97">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E121" s="93">
         <v>0</v>
       </c>
       <c r="F121" s="38" t="s">
@@ -4947,45 +4817,45 @@
       <c r="G121" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H121" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="122" s="77" spans="1:9">
-      <c r="A122" s="17" t="n">
+      <c r="H121" s="25"/>
+    </row>
+    <row r="122" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A122" s="17">
         <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C122" s="132" t="n"/>
-      <c r="D122" s="23" t="n">
+      <c r="C122" s="86"/>
+      <c r="D122" s="23">
         <v>0.5</v>
       </c>
-      <c r="E122" s="139" t="n">
+      <c r="E122" s="93">
         <v>0</v>
       </c>
       <c r="F122" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G122" s="38" t="n"/>
-      <c r="H122" s="25" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="123" s="77" spans="1:9">
-      <c r="A123" s="17" t="n">
+      <c r="G122" s="38"/>
+      <c r="H122" s="25"/>
+    </row>
+    <row r="123" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A123" s="17">
         <v>117</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C123" s="140" t="n">
-        <v>1216.579156514876</v>
-      </c>
-      <c r="D123" s="23" t="n">
+      <c r="C123" s="94">
+        <v>1216.5791565148761</v>
+      </c>
+      <c r="D123" s="23">
         <v>1</v>
       </c>
-      <c r="E123" s="139" t="n">
-        <v>1216.579156514876</v>
-      </c>
-      <c r="F123" s="1" t="n"/>
+      <c r="E123" s="93">
+        <v>1216.5791565148761</v>
+      </c>
+      <c r="F123" s="1"/>
       <c r="G123" s="38" t="s">
         <v>18</v>
       </c>
@@ -4993,33 +4863,33 @@
         <v>211</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="17" t="n">
+    <row r="124" spans="1:8">
+      <c r="A124" s="17">
         <v>118</v>
       </c>
       <c r="B124" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C124" s="137" t="n"/>
-      <c r="D124" s="21" t="n"/>
-      <c r="E124" s="135" t="n"/>
-      <c r="F124" s="1" t="n"/>
+      <c r="C124" s="91"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="1"/>
       <c r="G124" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H124" s="1" t="n"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="17" t="n">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="17">
         <v>119</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="138" t="n"/>
-      <c r="D125" s="21" t="n"/>
-      <c r="E125" s="135" t="n"/>
-      <c r="F125" s="1" t="n"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="88"/>
+      <c r="F125" s="1"/>
       <c r="G125" s="38" t="s">
         <v>18</v>
       </c>
@@ -5027,162 +4897,162 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="17" t="n">
+    <row r="126" spans="1:8">
+      <c r="A126" s="17">
         <v>120</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C126" s="138" t="n"/>
-      <c r="D126" s="21" t="n"/>
-      <c r="E126" s="135" t="n"/>
-      <c r="F126" s="38" t="n"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="88"/>
+      <c r="F126" s="38"/>
       <c r="G126" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="25" t="n"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="17" t="n">
+      <c r="H126" s="25"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="17">
         <v>121</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C127" s="132" t="n"/>
-      <c r="D127" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="n"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="23">
+        <v>0</v>
+      </c>
+      <c r="E127" s="93">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H127" s="25" t="n"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="17" t="n">
+      <c r="H127" s="25"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="17">
         <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C128" s="132" t="n"/>
-      <c r="D128" s="21" t="n"/>
-      <c r="E128" s="135" t="n"/>
-      <c r="F128" s="1" t="n"/>
+      <c r="C128" s="86"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="1"/>
       <c r="G128" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H128" s="25" t="n"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="17" t="n">
+      <c r="H128" s="25"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="17">
         <v>123</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="132" t="n"/>
-      <c r="D129" s="23" t="n">
+      <c r="C129" s="86"/>
+      <c r="D129" s="23">
         <v>0.15</v>
       </c>
-      <c r="E129" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1" t="n"/>
+      <c r="E129" s="93">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1"/>
       <c r="G129" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H129" s="25" t="n"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="17" t="n">
+      <c r="H129" s="25"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="17">
         <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C130" s="132" t="n"/>
-      <c r="D130" s="21" t="n"/>
-      <c r="E130" s="135" t="n"/>
-      <c r="F130" s="1" t="n"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="88"/>
+      <c r="F130" s="1"/>
       <c r="G130" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="25" t="n"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="17" t="n">
+      <c r="H130" s="25"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="17">
         <v>125</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C131" s="132" t="n"/>
-      <c r="D131" s="23" t="n">
+      <c r="C131" s="86"/>
+      <c r="D131" s="23">
         <v>0.5</v>
       </c>
-      <c r="E131" s="139" t="n">
+      <c r="E131" s="93">
         <v>0</v>
       </c>
       <c r="F131" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G131" s="1" t="n"/>
-      <c r="H131" s="25" t="n"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="17" t="n">
+      <c r="G131" s="1"/>
+      <c r="H131" s="25"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="17">
         <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C132" s="132" t="n"/>
-      <c r="D132" s="21" t="n"/>
-      <c r="E132" s="135" t="n"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="88"/>
       <c r="F132" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G132" s="1" t="n"/>
-      <c r="H132" s="25" t="n"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="17" t="n">
+      <c r="G132" s="1"/>
+      <c r="H132" s="25"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="17">
         <v>127</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C133" s="132" t="n"/>
-      <c r="D133" s="23" t="n">
+      <c r="C133" s="86"/>
+      <c r="D133" s="23">
         <v>0.5</v>
       </c>
-      <c r="E133" s="139" t="n">
+      <c r="E133" s="93">
         <v>0</v>
       </c>
       <c r="F133" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G133" s="1" t="n"/>
-      <c r="H133" s="25" t="n"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="17" t="n">
+      <c r="G133" s="1"/>
+      <c r="H133" s="25"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="17">
         <v>128</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C134" s="132" t="n"/>
-      <c r="D134" s="23" t="n">
+      <c r="C134" s="86"/>
+      <c r="D134" s="23">
         <v>1</v>
       </c>
-      <c r="E134" s="139" t="n">
+      <c r="E134" s="93">
         <v>0</v>
       </c>
       <c r="F134" s="38" t="s">
@@ -5191,77 +5061,77 @@
       <c r="G134" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H134" s="25" t="n"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="17" t="n">
+      <c r="H134" s="25"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="17">
         <v>129</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C135" s="132" t="n"/>
-      <c r="D135" s="23" t="n">
+      <c r="C135" s="86"/>
+      <c r="D135" s="23">
         <v>1</v>
       </c>
-      <c r="E135" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" s="1" t="n"/>
+      <c r="E135" s="93">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1"/>
       <c r="G135" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="H135" s="25" t="n"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="17" t="n">
+      <c r="H135" s="25"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="17">
         <v>130</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C136" s="132" t="n"/>
-      <c r="D136" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="1" t="n"/>
-      <c r="G136" s="1" t="n"/>
-      <c r="H136" s="25" t="n"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="17" t="n">
+      <c r="C136" s="86"/>
+      <c r="D136" s="23">
+        <v>0</v>
+      </c>
+      <c r="E136" s="93">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="25"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="17">
         <v>131</v>
       </c>
       <c r="B137" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C137" s="138" t="n"/>
-      <c r="D137" s="21" t="n"/>
-      <c r="E137" s="135" t="n"/>
-      <c r="F137" s="1" t="n"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="88"/>
+      <c r="F137" s="1"/>
       <c r="G137" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="1" t="n"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="17" t="n">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="17">
         <v>132</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C138" s="132" t="n"/>
-      <c r="D138" s="23" t="n">
+      <c r="C138" s="86"/>
+      <c r="D138" s="23">
         <v>0.5</v>
       </c>
-      <c r="E138" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" s="1" t="n"/>
+      <c r="E138" s="93">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1"/>
       <c r="G138" s="38" t="s">
         <v>18</v>
       </c>
@@ -5269,21 +5139,21 @@
         <v>230</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="17" t="n">
+    <row r="139" spans="1:8">
+      <c r="A139" s="17">
         <v>133</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C139" s="132" t="n"/>
-      <c r="D139" s="23" t="n">
+      <c r="C139" s="86"/>
+      <c r="D139" s="23">
         <v>0.5</v>
       </c>
-      <c r="E139" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="1" t="n"/>
+      <c r="E139" s="93">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1"/>
       <c r="G139" s="38" t="s">
         <v>18</v>
       </c>
@@ -5291,38 +5161,38 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="17" t="n">
+    <row r="140" spans="1:8">
+      <c r="A140" s="17">
         <v>134</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C140" s="132" t="n"/>
-      <c r="D140" s="23" t="n">
+      <c r="C140" s="86"/>
+      <c r="D140" s="23">
         <v>0.5</v>
       </c>
-      <c r="E140" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" s="1" t="n"/>
+      <c r="E140" s="93">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1"/>
       <c r="G140" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H140" s="34" t="n"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="17" t="n">
+      <c r="H140" s="34"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="17">
         <v>135</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C141" s="132" t="n"/>
-      <c r="D141" s="23" t="n">
+      <c r="C141" s="86"/>
+      <c r="D141" s="23">
         <v>0.5</v>
       </c>
-      <c r="E141" s="139" t="n">
+      <c r="E141" s="93">
         <v>0</v>
       </c>
       <c r="F141" s="38" t="s">
@@ -5335,97 +5205,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="17" t="n">
+    <row r="142" spans="1:8">
+      <c r="A142" s="17">
         <v>136</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C142" s="132" t="n"/>
-      <c r="D142" s="23" t="n">
+      <c r="C142" s="86"/>
+      <c r="D142" s="23">
         <v>1</v>
       </c>
-      <c r="E142" s="139" t="n">
+      <c r="E142" s="93">
         <v>0</v>
       </c>
       <c r="F142" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G142" s="1" t="n"/>
-      <c r="H142" s="25" t="n"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="17" t="n">
+      <c r="G142" s="1"/>
+      <c r="H142" s="25"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="17">
         <v>137</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C143" s="138" t="n"/>
-      <c r="D143" s="21" t="n"/>
-      <c r="E143" s="135" t="n"/>
-      <c r="F143" s="1" t="n"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="88"/>
+      <c r="F143" s="1"/>
       <c r="G143" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="H143" s="25" t="n"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="17" t="n">
+      <c r="H143" s="25"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="17">
         <v>138</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="132" t="n"/>
-      <c r="D144" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" s="139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="1" t="n"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="23">
+        <v>0</v>
+      </c>
+      <c r="E144" s="93">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1"/>
       <c r="G144" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="H144" s="27" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="145" s="77" spans="1:9">
-      <c r="A145" s="17" t="n">
+      <c r="H144" s="27"/>
+    </row>
+    <row r="145" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A145" s="17">
         <v>139</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C145" s="141" t="n"/>
-      <c r="D145" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" s="135" t="n"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="23">
+        <v>0</v>
+      </c>
+      <c r="E145" s="88"/>
       <c r="F145" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="G145" s="12" t="n"/>
-      <c r="H145" s="25" t="n"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="17" t="n">
+      <c r="G145" s="12"/>
+      <c r="H145" s="25"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="17">
         <v>140</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C146" s="140" t="n">
-        <v>313736.9150340502</v>
-      </c>
-      <c r="D146" s="23" t="n">
+      <c r="C146" s="94">
+        <v>313736.91503405018</v>
+      </c>
+      <c r="D146" s="23">
         <v>1</v>
       </c>
-      <c r="E146" s="139" t="n">
-        <v>313736.9150340502</v>
-      </c>
-      <c r="F146" s="1" t="n"/>
+      <c r="E146" s="93">
+        <v>313736.91503405018</v>
+      </c>
+      <c r="F146" s="1"/>
       <c r="G146" s="38" t="s">
         <v>243</v>
       </c>
@@ -5433,57 +5303,57 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="17" t="n">
+    <row r="147" spans="1:8">
+      <c r="A147" s="17">
         <v>141</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C147" s="146" t="n"/>
-      <c r="D147" s="23" t="n">
+      <c r="C147" s="100"/>
+      <c r="D147" s="23">
         <v>1</v>
       </c>
-      <c r="E147" s="139" t="n">
+      <c r="E147" s="93">
         <v>0</v>
       </c>
       <c r="F147" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G147" s="1" t="n"/>
-      <c r="H147" s="25" t="n"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="17" t="n">
+      <c r="G147" s="1"/>
+      <c r="H147" s="25"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="17">
         <v>142</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C148" s="138" t="n"/>
-      <c r="D148" s="21" t="n"/>
-      <c r="E148" s="21" t="n"/>
-      <c r="F148" s="1" t="n"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="1"/>
       <c r="G148" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H148" s="25" t="n"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="17" t="n">
+      <c r="H148" s="25"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="17">
         <v>143</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C149" s="142" t="n">
-        <v>18633.925971</v>
-      </c>
-      <c r="D149" s="23" t="n">
+      <c r="C149" s="96">
+        <v>18633.925971000001</v>
+      </c>
+      <c r="D149" s="23">
         <v>1</v>
       </c>
-      <c r="E149" s="139" t="n">
-        <v>18633.925971</v>
+      <c r="E149" s="93">
+        <v>18633.925971000001</v>
       </c>
       <c r="F149" s="38" t="s">
         <v>145</v>
@@ -5495,18 +5365,18 @@
         <v>148</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="150" s="77" spans="1:9" thickBot="1">
-      <c r="A150" s="45" t="n">
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A150" s="45">
         <v>144</v>
       </c>
       <c r="B150" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="C150" s="147" t="n"/>
-      <c r="D150" s="47" t="n">
+      <c r="C150" s="101"/>
+      <c r="D150" s="47">
         <v>0.5</v>
       </c>
-      <c r="E150" s="148" t="n">
+      <c r="E150" s="102">
         <v>0</v>
       </c>
       <c r="F150" s="38" t="s">
@@ -5519,346 +5389,346 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:8">
       <c r="A151" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="B151" s="49" t="n"/>
-      <c r="C151" s="50" t="n"/>
-      <c r="D151" s="1" t="n"/>
-      <c r="E151" s="1" t="n"/>
-      <c r="F151" s="1" t="n"/>
-      <c r="G151" s="1" t="n"/>
-      <c r="H151" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="152" s="77" spans="1:9">
-      <c r="A152" s="28" t="n">
+      <c r="B151" s="49"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" ht="21" customHeight="1">
+      <c r="A152" s="28">
         <v>1</v>
       </c>
       <c r="B152" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="C152" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D152" s="1" t="n"/>
-      <c r="E152" s="1" t="n"/>
-      <c r="F152" s="1" t="n"/>
+      <c r="C152" s="103">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
       <c r="G152" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="153" s="77" spans="1:9">
-      <c r="A153" s="28" t="n">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" ht="21" customHeight="1">
+      <c r="A153" s="28">
         <v>2</v>
       </c>
       <c r="B153" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C153" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D153" s="1" t="n"/>
-      <c r="E153" s="1" t="n"/>
-      <c r="F153" s="1" t="n"/>
+      <c r="C153" s="103">
+        <v>0</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
       <c r="G153" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H153" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="154" s="77" spans="1:9">
-      <c r="A154" s="28" t="n">
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" ht="21" customHeight="1">
+      <c r="A154" s="28">
         <v>3</v>
       </c>
       <c r="B154" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C154" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D154" s="1" t="n"/>
-      <c r="E154" s="1" t="n"/>
+      <c r="C154" s="103">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
       <c r="F154" s="38" t="s">
         <v>145</v>
       </c>
       <c r="G154" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H154" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="155" s="77" spans="1:9">
-      <c r="A155" s="28" t="n">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" ht="21" customHeight="1">
+      <c r="A155" s="28">
         <v>4</v>
       </c>
       <c r="B155" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C155" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" s="1" t="n"/>
-      <c r="E155" s="1" t="n"/>
+      <c r="C155" s="103">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
       <c r="F155" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G155" s="1" t="n"/>
-      <c r="H155" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="156" s="77" spans="1:9">
-      <c r="A156" s="28" t="n">
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" ht="21" customHeight="1">
+      <c r="A156" s="28">
         <v>5</v>
       </c>
       <c r="B156" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="C156" s="149" t="n">
-        <v>95227.41984534921</v>
-      </c>
-      <c r="D156" s="1" t="n"/>
-      <c r="E156" s="1" t="n"/>
-      <c r="F156" s="1" t="n"/>
+      <c r="C156" s="103">
+        <v>95227.419845349214</v>
+      </c>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
       <c r="G156" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H156" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="157" s="77" spans="1:9">
-      <c r="A157" s="28" t="n">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" ht="21" customHeight="1">
+      <c r="A157" s="28">
         <v>6</v>
       </c>
       <c r="B157" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="C157" s="149" t="n">
+      <c r="C157" s="103">
         <v>380909.6793813968</v>
       </c>
-      <c r="D157" s="1" t="n"/>
-      <c r="E157" s="1" t="n"/>
-      <c r="F157" s="1" t="n"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
       <c r="G157" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H157" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="158" s="77" spans="1:9">
-      <c r="A158" s="28" t="n">
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" ht="21" customHeight="1">
+      <c r="A158" s="28">
         <v>7</v>
       </c>
       <c r="B158" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="C158" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="1" t="n"/>
-      <c r="E158" s="1" t="n"/>
-      <c r="F158" s="1" t="n"/>
+      <c r="C158" s="103">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
       <c r="G158" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H158" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="159" s="77" spans="1:9">
-      <c r="A159" s="28" t="n">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" ht="21" customHeight="1">
+      <c r="A159" s="28">
         <v>8</v>
       </c>
       <c r="B159" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C159" s="149" t="n">
-        <v>361066.0223008819</v>
-      </c>
-      <c r="D159" s="1" t="n"/>
-      <c r="E159" s="1" t="n"/>
-      <c r="F159" s="1" t="n"/>
+      <c r="C159" s="103">
+        <v>361066.02230088192</v>
+      </c>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
       <c r="G159" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H159" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="160" s="77" spans="1:9">
-      <c r="A160" s="28" t="n">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" ht="21" customHeight="1">
+      <c r="A160" s="28">
         <v>9</v>
       </c>
       <c r="B160" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="1" t="n"/>
-      <c r="E160" s="1" t="n"/>
-      <c r="F160" s="1" t="n"/>
+      <c r="C160" s="103">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
       <c r="G160" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H160" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="21" r="161" s="77" spans="1:9">
-      <c r="A161" s="28" t="n">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" ht="21" customHeight="1">
+      <c r="A161" s="28">
         <v>10</v>
       </c>
       <c r="B161" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="C161" s="149" t="n">
-        <v>18627.077924</v>
-      </c>
-      <c r="D161" s="1" t="n"/>
-      <c r="E161" s="1" t="n"/>
-      <c r="F161" s="1" t="n"/>
+      <c r="C161" s="103">
+        <v>18627.077924000001</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
       <c r="G161" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="162" s="77" spans="1:9">
-      <c r="A162" s="28" t="n">
+    <row r="162" spans="1:7" ht="21" customHeight="1">
+      <c r="A162" s="28">
         <v>11</v>
       </c>
       <c r="B162" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="C162" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="1" t="n"/>
-      <c r="E162" s="1" t="n"/>
-      <c r="F162" s="1" t="n"/>
+      <c r="C162" s="103">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
       <c r="G162" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="163" s="77" spans="1:9">
-      <c r="A163" s="28" t="n">
+    <row r="163" spans="1:7" ht="21" customHeight="1">
+      <c r="A163" s="28">
         <v>12</v>
       </c>
       <c r="B163" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="C163" s="149" t="n">
-        <v>1216.579156514876</v>
-      </c>
-      <c r="D163" s="1" t="n"/>
-      <c r="E163" s="1" t="n"/>
-      <c r="F163" s="1" t="n"/>
+      <c r="C163" s="103">
+        <v>1216.5791565148761</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
       <c r="G163" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="164" s="77" spans="1:9">
-      <c r="A164" s="28" t="n">
+    <row r="164" spans="1:7" ht="21" customHeight="1">
+      <c r="A164" s="28">
         <v>13</v>
       </c>
       <c r="B164" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="C164" s="149" t="n">
-        <v>332370.8410050502</v>
-      </c>
-      <c r="D164" s="1" t="n"/>
-      <c r="E164" s="1" t="n"/>
-      <c r="F164" s="1" t="n"/>
+      <c r="C164" s="103">
+        <v>332370.84100505023</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
       <c r="G164" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="165" s="77" spans="1:9">
-      <c r="A165" s="28" t="n">
+    <row r="165" spans="1:7" ht="21" customHeight="1">
+      <c r="A165" s="28">
         <v>14</v>
       </c>
       <c r="B165" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="C165" s="149" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" s="1" t="n"/>
-      <c r="E165" s="1" t="n"/>
-      <c r="F165" s="1" t="n"/>
+      <c r="C165" s="103">
+        <v>0</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
       <c r="G165" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="166" s="77" spans="1:9">
-      <c r="A166" s="28" t="n">
+    <row r="166" spans="1:7" ht="21" customHeight="1">
+      <c r="A166" s="28">
         <v>15</v>
       </c>
       <c r="B166" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="C166" s="149" t="n">
-        <v>313736.9150340502</v>
-      </c>
-      <c r="D166" s="1" t="n"/>
-      <c r="E166" s="1" t="n"/>
-      <c r="F166" s="1" t="n"/>
+      <c r="C166" s="103">
+        <v>313736.91503405018</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
       <c r="G166" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="167" s="77" spans="1:9">
-      <c r="A167" s="28" t="n">
+    <row r="167" spans="1:7" ht="21" customHeight="1">
+      <c r="A167" s="28">
         <v>16</v>
       </c>
       <c r="B167" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="C167" s="149" t="n">
-        <v>18633.925971</v>
-      </c>
-      <c r="D167" s="1" t="n"/>
-      <c r="E167" s="1" t="n"/>
-      <c r="F167" s="1" t="n"/>
+      <c r="C167" s="103">
+        <v>18633.925971000001</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
       <c r="G167" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="168" s="77" spans="1:9" thickBot="1">
-      <c r="A168" s="45" t="n">
+    <row r="168" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A168" s="45">
         <v>17</v>
       </c>
       <c r="B168" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="C168" s="71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="1" t="n"/>
-      <c r="E168" s="1" t="n"/>
-      <c r="F168" s="1" t="n"/>
+      <c r="C168" s="71">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
       <c r="G168" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="169" s="77" spans="1:9" thickBot="1">
+    <row r="169" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
       <c r="A169" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="B169" s="1" t="n"/>
-      <c r="C169" s="1" t="n"/>
-      <c r="D169" s="1" t="n"/>
-      <c r="E169" s="1" t="n"/>
-      <c r="F169" s="1" t="n"/>
-      <c r="G169" s="1" t="n"/>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="51" t="n"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="51"/>
       <c r="B170" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C170" s="150" t="s">
+      <c r="C170" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="151" t="s">
+      <c r="D170" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="1" t="n"/>
-      <c r="F170" s="1" t="n"/>
-      <c r="G170" s="1" t="n"/>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="51" t="n"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="51"/>
       <c r="B171" s="53" t="s">
         <v>269</v>
       </c>
@@ -5868,81 +5738,81 @@
       <c r="D171" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="E171" s="12" t="n"/>
+      <c r="E171" s="12"/>
       <c r="F171" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G171" s="1" t="n"/>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="51" t="n"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="51"/>
       <c r="B172" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C172" s="57" t="n"/>
-      <c r="D172" s="58" t="n"/>
-      <c r="E172" s="12" t="n"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="12"/>
       <c r="F172" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G172" s="1" t="n"/>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="51" t="n"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="51"/>
       <c r="B173" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="C173" s="57" t="n"/>
-      <c r="D173" s="58" t="n"/>
-      <c r="E173" s="12" t="n"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="12"/>
       <c r="F173" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G173" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="174" s="77" spans="1:9" thickBot="1">
-      <c r="A174" s="51" t="n"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A174" s="51"/>
       <c r="B174" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="C174" s="60" t="n"/>
-      <c r="D174" s="61" t="n"/>
-      <c r="E174" s="12" t="n"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="12"/>
       <c r="F174" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G174" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="175" s="77" spans="1:9" thickBot="1">
-      <c r="A175" s="51" t="n"/>
-      <c r="B175" s="1" t="n"/>
-      <c r="C175" s="66" t="n"/>
-      <c r="D175" s="66" t="n"/>
-      <c r="E175" s="12" t="n"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A175" s="51"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="12"/>
       <c r="F175" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G175" s="1" t="n"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="51" t="n"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="51"/>
       <c r="B176" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C176" s="150" t="s">
+      <c r="C176" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="152" t="s">
+      <c r="D176" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="E176" s="151" t="s">
+      <c r="E176" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="38" t="n"/>
-      <c r="G176" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="177" s="77" spans="1:9">
-      <c r="A177" s="51" t="n"/>
+      <c r="F176" s="38"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A177" s="51"/>
       <c r="B177" s="62" t="s">
         <v>275</v>
       </c>
@@ -5959,197 +5829,197 @@
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1" t="n"/>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1"/>
       <c r="B178" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="C178" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" s="23" t="n">
+      <c r="C178" s="92">
+        <v>0</v>
+      </c>
+      <c r="D178" s="23">
         <v>1</v>
       </c>
-      <c r="E178" s="153" t="n">
+      <c r="E178" s="107">
         <v>0</v>
       </c>
       <c r="F178" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1" t="n"/>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1"/>
       <c r="B179" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="C179" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="23" t="n">
+      <c r="C179" s="92">
+        <v>0</v>
+      </c>
+      <c r="D179" s="23">
         <v>1</v>
       </c>
-      <c r="E179" s="153" t="n">
+      <c r="E179" s="107">
         <v>0</v>
       </c>
       <c r="F179" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1" t="n"/>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1"/>
       <c r="B180" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C180" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" s="23" t="n">
+      <c r="C180" s="92">
+        <v>0</v>
+      </c>
+      <c r="D180" s="23">
         <v>0.85</v>
       </c>
-      <c r="E180" s="153" t="n">
+      <c r="E180" s="107">
         <v>0</v>
       </c>
       <c r="F180" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1" t="n"/>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1"/>
       <c r="B181" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="C181" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" s="23" t="n">
+      <c r="C181" s="92">
+        <v>0</v>
+      </c>
+      <c r="D181" s="23">
         <v>0.85</v>
       </c>
-      <c r="E181" s="153" t="n">
+      <c r="E181" s="107">
         <v>0</v>
       </c>
       <c r="F181" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1" t="n"/>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1"/>
       <c r="B182" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="C182" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" s="23" t="n">
+      <c r="C182" s="92">
+        <v>0</v>
+      </c>
+      <c r="D182" s="23">
         <v>0.5</v>
       </c>
-      <c r="E182" s="153" t="n">
+      <c r="E182" s="107">
         <v>0</v>
       </c>
       <c r="F182" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1" t="n"/>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1"/>
       <c r="B183" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="C183" s="138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" s="23" t="n">
+      <c r="C183" s="92">
+        <v>0</v>
+      </c>
+      <c r="D183" s="23">
         <v>0.5</v>
       </c>
-      <c r="E183" s="153" t="n">
+      <c r="E183" s="107">
         <v>0</v>
       </c>
       <c r="F183" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="1" t="n"/>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1"/>
       <c r="B184" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="C184" s="137" t="n"/>
-      <c r="D184" s="137" t="n"/>
-      <c r="E184" s="135" t="n"/>
+      <c r="C184" s="91"/>
+      <c r="D184" s="91"/>
+      <c r="E184" s="88"/>
       <c r="F184" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1" t="n"/>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1"/>
       <c r="B185" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="C185" s="137" t="n"/>
-      <c r="D185" s="137" t="n"/>
-      <c r="E185" s="153" t="n">
+      <c r="C185" s="91"/>
+      <c r="D185" s="91"/>
+      <c r="E185" s="107">
         <v>0</v>
       </c>
       <c r="F185" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="186" s="77" spans="1:9" thickBot="1">
-      <c r="A186" s="1" t="n"/>
+    <row r="186" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A186" s="1"/>
       <c r="B186" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C186" s="154" t="n"/>
-      <c r="D186" s="154" t="n"/>
-      <c r="E186" s="155" t="n">
+      <c r="C186" s="108"/>
+      <c r="D186" s="108"/>
+      <c r="E186" s="109">
         <v>0</v>
       </c>
       <c r="F186" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="109" t="s">
+    <row r="187" spans="1:6">
+      <c r="A187" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="B187" s="109" t="n"/>
-      <c r="C187" s="156" t="s">
+      <c r="B187" s="111"/>
+      <c r="C187" s="112" t="s">
         <v>287</v>
       </c>
-      <c r="D187" s="156" t="n"/>
+      <c r="D187" s="112"/>
       <c r="E187" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="F187" s="1" t="n"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="72" t="n"/>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="72"/>
       <c r="B188" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="C188" s="73" t="n"/>
-      <c r="D188" s="73" t="n"/>
-      <c r="E188" s="1" t="n"/>
-      <c r="F188" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="189" s="77" spans="1:9">
-      <c r="A189" s="74" t="n"/>
+      <c r="C188" s="73"/>
+      <c r="D188" s="73"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A189" s="74"/>
       <c r="B189" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="C189" s="73" t="n"/>
-      <c r="D189" s="73" t="n"/>
-      <c r="E189" s="1" t="n"/>
-      <c r="F189" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="190" s="77" spans="1:9">
-      <c r="A190" s="76" t="n"/>
+      <c r="C189" s="73"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A190" s="76"/>
       <c r="B190" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="C190" s="73" t="n"/>
-      <c r="D190" s="73" t="n"/>
-      <c r="E190" s="1" t="n"/>
-      <c r="F190" s="1" t="n"/>
+      <c r="C190" s="73"/>
+      <c r="D190" s="73"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6163,43 +6033,36 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="1200" orientation="portrait" paperSize="9" verticalDpi="1200"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>